--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4540c62fe8c17ce9/Документы/Проект/py/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4540c62fe8c17ce9/Документы/map vs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="606" documentId="8_{02014CF3-F4DB-4528-8EA8-30A1A6DCDC6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9196FC20-4659-4551-96D5-16F91FBD4FA7}"/>
+  <xr:revisionPtr revIDLastSave="643" documentId="8_{02014CF3-F4DB-4528-8EA8-30A1A6DCDC6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F7DA0D4C-E757-4BC9-B2B8-9C58D99BCB82}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF4726AC-CB0C-4546-A1D6-5642601E4A3C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="280">
   <si>
     <t>45.038740</t>
   </si>
@@ -260,21 +260,9 @@
     <t>39.024650</t>
   </si>
   <si>
-    <t>телефон: 8 (861) 204-07-68</t>
-  </si>
-  <si>
-    <t>телефон: 8 (961) 534-88-33</t>
-  </si>
-  <si>
     <t xml:space="preserve">телефон: </t>
   </si>
   <si>
-    <t>телефон: 8 (861) 275-39-28</t>
-  </si>
-  <si>
-    <t>телефон: 8 (988) 246-46-52</t>
-  </si>
-  <si>
     <t>Приют "Краснодог"</t>
   </si>
   <si>
@@ -368,9 +356,6 @@
     <t>ул. Достоевского, 105</t>
   </si>
   <si>
-    <t>телефон: 8 (918) 092-05-65</t>
-  </si>
-  <si>
     <t>45.053197</t>
   </si>
   <si>
@@ -383,9 +368,6 @@
     <t>Фестивальный микрорайон, ул. Кольцевая, 17</t>
   </si>
   <si>
-    <t>телефон: 8 (960) 493-27-84</t>
-  </si>
-  <si>
     <t>45.069612</t>
   </si>
   <si>
@@ -398,9 +380,6 @@
     <t>ул. Карякина, 15</t>
   </si>
   <si>
-    <t>телефон: 8 (918) 111-05-67</t>
-  </si>
-  <si>
     <t>45.065535</t>
   </si>
   <si>
@@ -413,9 +392,6 @@
     <t>ул. Бабушкина, 162</t>
   </si>
   <si>
-    <t>телефон: 8 (861) 217-62-93</t>
-  </si>
-  <si>
     <t>45.049282</t>
   </si>
   <si>
@@ -431,9 +407,6 @@
     <t>ул. 40-летия Победы, 133</t>
   </si>
   <si>
-    <t>телефон: 8 (989) 262-98-81</t>
-  </si>
-  <si>
     <t>45.056322</t>
   </si>
   <si>
@@ -443,9 +416,6 @@
     <t>Ветеринарная клиника "Биосфера"</t>
   </si>
   <si>
-    <t>телефон: 8 (861) 251-67-85</t>
-  </si>
-  <si>
     <t>45.028848</t>
   </si>
   <si>
@@ -461,9 +431,6 @@
     <t>ул. 1 Мая, 319</t>
   </si>
   <si>
-    <t>телефон: 8 (861) 228-82-73</t>
-  </si>
-  <si>
     <t>45.078158</t>
   </si>
   <si>
@@ -476,9 +443,6 @@
     <t>ул. Маяковского, 150</t>
   </si>
   <si>
-    <t>телефон: 8 (918) 341-44-96</t>
-  </si>
-  <si>
     <t>45.022327</t>
   </si>
   <si>
@@ -491,9 +455,6 @@
     <t>ул. Академика Пустовойта, 12</t>
   </si>
   <si>
-    <t>телефон: 8 (861) 290-30-20</t>
-  </si>
-  <si>
     <t>45.040342</t>
   </si>
   <si>
@@ -506,9 +467,6 @@
     <t>ул. Целиноградская, 68</t>
   </si>
   <si>
-    <t>телефон: 8 (918) 420-05-95</t>
-  </si>
-  <si>
     <t>45.156730</t>
   </si>
   <si>
@@ -521,9 +479,6 @@
     <t>ул. Корницкого, 62</t>
   </si>
   <si>
-    <t>телефон: 8 (900) 256-63-86</t>
-  </si>
-  <si>
     <t>45.037639</t>
   </si>
   <si>
@@ -533,9 +488,6 @@
     <t>ул. Селезнева, 4/6</t>
   </si>
   <si>
-    <t>телефон: 8 (918) 398-28-08</t>
-  </si>
-  <si>
     <t>45.025055</t>
   </si>
   <si>
@@ -548,9 +500,6 @@
     <t>ул. Волжская, 12</t>
   </si>
   <si>
-    <t>телефон: 8 (861) 201-61-18</t>
-  </si>
-  <si>
     <t>45.025588</t>
   </si>
   <si>
@@ -563,9 +512,6 @@
     <t>ул. Монтажников, 5</t>
   </si>
   <si>
-    <t>телефон: 8 (988) 363-38-83</t>
-  </si>
-  <si>
     <t>45.060182</t>
   </si>
   <si>
@@ -575,9 +521,6 @@
     <t>Ветеринарная клиника "Весниной Зинаиды Юрьевны"</t>
   </si>
   <si>
-    <t>телефон: 8 (918) 411-86-58</t>
-  </si>
-  <si>
     <t>45.141508</t>
   </si>
   <si>
@@ -593,9 +536,6 @@
     <t>ул. Коммунаров, 221/1</t>
   </si>
   <si>
-    <t>телефон: 8 (861) 215-31-28</t>
-  </si>
-  <si>
     <t>45.048500</t>
   </si>
   <si>
@@ -605,9 +545,6 @@
     <t>ул. Имени Котлярова Н.С., 1</t>
   </si>
   <si>
-    <t>телефон: 8 (988) 666-88-53</t>
-  </si>
-  <si>
     <t>45.063804</t>
   </si>
   <si>
@@ -620,9 +557,6 @@
     <t>пр. Чекистов, 42</t>
   </si>
   <si>
-    <t>телефон: 8 (861) 273-53-33</t>
-  </si>
-  <si>
     <t>45.032970</t>
   </si>
   <si>
@@ -632,9 +566,6 @@
     <t>п-кт, пр. Чекистов, 24/1</t>
   </si>
   <si>
-    <t>телефон: 8 (989) 215-28-48</t>
-  </si>
-  <si>
     <t>45.029149</t>
   </si>
   <si>
@@ -647,9 +578,6 @@
     <t>ул. Кубанская набережная, 37/12, 1 этаж</t>
   </si>
   <si>
-    <t>телефон: 8 (918) 984-14-12</t>
-  </si>
-  <si>
     <t>45.022943</t>
   </si>
   <si>
@@ -662,9 +590,6 @@
     <t>ул. Зиповская, 5</t>
   </si>
   <si>
-    <t>телефон: 8 (918) 328-00-51</t>
-  </si>
-  <si>
     <t>45.062153</t>
   </si>
   <si>
@@ -677,9 +602,6 @@
     <t>Звенигородский 3-й, пр. Карасунский, 41</t>
   </si>
   <si>
-    <t>телефон: 8 (900) 296-49-00</t>
-  </si>
-  <si>
     <t>45.125150</t>
   </si>
   <si>
@@ -719,9 +641,6 @@
     <t>ул. 1 Мая, 374</t>
   </si>
   <si>
-    <t>телефон: 8 (928) 281-42-86</t>
-  </si>
-  <si>
     <t>45.078003</t>
   </si>
   <si>
@@ -731,9 +650,6 @@
     <t>ул. Мачуги, 20</t>
   </si>
   <si>
-    <t>телефон: 8 (918) 188-22-99</t>
-  </si>
-  <si>
     <t>45.012963</t>
   </si>
   <si>
@@ -749,12 +665,6 @@
     <t>39.028409</t>
   </si>
   <si>
-    <t>телефон: 8 (861) 205-34-06</t>
-  </si>
-  <si>
-    <t>телефон: 8 (861) 258-52-79</t>
-  </si>
-  <si>
     <t>45.097552</t>
   </si>
   <si>
@@ -767,9 +677,6 @@
     <t>ул. Симферопольская, 34А</t>
   </si>
   <si>
-    <t>телефон: 8 (861) 260-21-99</t>
-  </si>
-  <si>
     <t>45.035759</t>
   </si>
   <si>
@@ -782,9 +689,6 @@
     <t>ул. Восточно-Кругликовская, 72Ак19</t>
   </si>
   <si>
-    <t>телефон: 8 (928) 843-91-39</t>
-  </si>
-  <si>
     <t>45.070546</t>
   </si>
   <si>
@@ -806,9 +710,6 @@
     <t>ул. Пригородная, 291к3</t>
   </si>
   <si>
-    <t>телефон: 8 (918) 276-39-08</t>
-  </si>
-  <si>
     <t>45.120858</t>
   </si>
   <si>
@@ -821,9 +722,6 @@
     <t>ул. 3-я Линия, 57/7</t>
   </si>
   <si>
-    <t>телефон: 8 (861) 944-00-96</t>
-  </si>
-  <si>
     <t>45.062180</t>
   </si>
   <si>
@@ -870,6 +768,114 @@
   </si>
   <si>
     <t>8 (861) 242-98-62</t>
+  </si>
+  <si>
+    <t>8 (861) 204-07-68</t>
+  </si>
+  <si>
+    <t>8 (961) 534-88-33</t>
+  </si>
+  <si>
+    <t>8 (861) 275-39-28</t>
+  </si>
+  <si>
+    <t>8 (988) 246-46-52</t>
+  </si>
+  <si>
+    <t>8 (918) 092-05-65</t>
+  </si>
+  <si>
+    <t>8 (960) 493-27-84</t>
+  </si>
+  <si>
+    <t>8 (918) 111-05-67</t>
+  </si>
+  <si>
+    <t>8 (861) 217-62-93</t>
+  </si>
+  <si>
+    <t>8 (989) 262-98-81</t>
+  </si>
+  <si>
+    <t>8 (861) 251-67-85</t>
+  </si>
+  <si>
+    <t>8 (861) 228-82-73</t>
+  </si>
+  <si>
+    <t>8 (918) 341-44-96</t>
+  </si>
+  <si>
+    <t>8 (861) 290-30-20</t>
+  </si>
+  <si>
+    <t>8 (918) 420-05-95</t>
+  </si>
+  <si>
+    <t>8 (900) 256-63-86</t>
+  </si>
+  <si>
+    <t>8 (918) 398-28-08</t>
+  </si>
+  <si>
+    <t>8 (861) 201-61-18</t>
+  </si>
+  <si>
+    <t>8 (988) 363-38-83</t>
+  </si>
+  <si>
+    <t>8 (918) 411-86-58</t>
+  </si>
+  <si>
+    <t>8 (861) 215-31-28</t>
+  </si>
+  <si>
+    <t>8 (988) 666-88-53</t>
+  </si>
+  <si>
+    <t>8 (861) 273-53-33</t>
+  </si>
+  <si>
+    <t>8 (989) 215-28-48</t>
+  </si>
+  <si>
+    <t>8 (918) 984-14-12</t>
+  </si>
+  <si>
+    <t>8 (918) 328-00-51</t>
+  </si>
+  <si>
+    <t>8 (900) 296-49-00</t>
+  </si>
+  <si>
+    <t>8 (938) 454-67-88</t>
+  </si>
+  <si>
+    <t>8 (928) 281-42-86</t>
+  </si>
+  <si>
+    <t>8 (918) 188-22-99</t>
+  </si>
+  <si>
+    <t>8 (861) 205-34-06</t>
+  </si>
+  <si>
+    <t>8 (861) 258-52-79</t>
+  </si>
+  <si>
+    <t>8 (861) 260-21-99</t>
+  </si>
+  <si>
+    <t>8 (928) 843-91-39</t>
+  </si>
+  <si>
+    <t>8 (918) 276-39-08</t>
+  </si>
+  <si>
+    <t>8 (861) 944-00-96</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1231,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB534E2-50F9-4040-9258-1D3ACB0B627F}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1273,22 +1279,22 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="C2">
         <v>350053</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1296,13 +1302,13 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>350000</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -1311,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,7 +1331,7 @@
         <v>350000</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1334,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,7 +1354,7 @@
         <v>350051</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1357,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1371,7 +1377,7 @@
         <v>350090</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -1380,7 +1386,7 @@
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,7 +1400,7 @@
         <v>350051</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -1403,7 +1409,7 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1417,7 +1423,7 @@
         <v>350005</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1426,7 +1432,7 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1440,7 +1446,7 @@
         <v>350000</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -1449,7 +1455,7 @@
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1463,7 +1469,7 @@
         <v>350005</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
@@ -1472,7 +1478,7 @@
         <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1486,7 +1492,7 @@
         <v>350072</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -1495,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1509,7 +1515,7 @@
         <v>350049</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="E12" t="s">
         <v>55</v>
@@ -1518,7 +1524,7 @@
         <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1532,7 +1538,7 @@
         <v>350062</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="E13" t="s">
         <v>60</v>
@@ -1541,7 +1547,7 @@
         <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1555,7 +1561,7 @@
         <v>350087</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
         <v>64</v>
@@ -1564,7 +1570,7 @@
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1578,7 +1584,7 @@
         <v>350072</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
         <v>68</v>
@@ -1587,7 +1593,7 @@
         <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1601,7 +1607,7 @@
         <v>350087</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
         <v>72</v>
@@ -1610,260 +1616,260 @@
         <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C17">
         <v>350901</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C18">
         <v>350051</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C19">
         <v>350072</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C20">
         <v>350049</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C21">
         <v>350901</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C22">
         <v>350000</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C23">
         <v>350087</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C24">
         <v>350001</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C25">
         <v>350059</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="E25" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C26">
         <v>350031</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C27">
         <v>350038</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1871,114 +1877,114 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C28">
         <v>350075</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C29">
         <v>350001</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C30">
         <v>350051</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="E30" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C31">
         <v>350067</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C32">
         <v>350020</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1986,183 +1992,183 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C33">
         <v>350016</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C34">
         <v>350089</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F34" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C35">
         <v>350089</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="E35" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="C36">
         <v>350063</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="E36" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="F36" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C37">
         <v>350010</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F37" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C38">
         <v>350900</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C39">
         <v>350011</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="E39" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="F39" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C40">
         <v>350059</v>
       </c>
       <c r="D40" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="E40" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="F40" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="G40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2170,45 +2176,45 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="C41">
         <v>350061</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="C42">
         <v>350901</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="E42" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="F42" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="G42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2222,131 +2228,131 @@
         <v>350005</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="E43" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="F43" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C44">
         <v>350080</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="C45">
         <v>350901</v>
       </c>
       <c r="D45" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="E45" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="F45" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C46">
         <v>350016</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F46" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="G46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C47">
         <v>350087</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="E47" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="F47" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="C48">
         <v>350047</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="E48" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="F48" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="G48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2393,21 +2399,21 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="C2">
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -2421,16 +2427,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="C3">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -2447,13 +2453,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="C4">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2470,13 +2476,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="C5">
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -2490,22 +2496,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C6">
         <v>350011</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -2554,145 +2560,145 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>350038</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>350089</v>
       </c>
       <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>350000</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>353211</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>350072</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C7">
         <v>350011</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4540c62fe8c17ce9/Документы/map vs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="643" documentId="8_{02014CF3-F4DB-4528-8EA8-30A1A6DCDC6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F7DA0D4C-E757-4BC9-B2B8-9C58D99BCB82}"/>
+  <xr:revisionPtr revIDLastSave="894" documentId="8_{02014CF3-F4DB-4528-8EA8-30A1A6DCDC6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9C9CFD95-B312-4DC8-8D8E-7906BB6E890C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF4726AC-CB0C-4546-A1D6-5642601E4A3C}"/>
+    <workbookView xWindow="9945" yWindow="-75" windowWidth="10260" windowHeight="9945" activeTab="1" xr2:uid="{CF4726AC-CB0C-4546-A1D6-5642601E4A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ветеринарные клиники" sheetId="1" r:id="rId1"/>
     <sheet name="Зоомагазины" sheetId="2" r:id="rId2"/>
     <sheet name="Приюты" sheetId="4" r:id="rId3"/>
+    <sheet name="Кафе" sheetId="5" r:id="rId4"/>
+    <sheet name="Парки" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="405">
   <si>
     <t>45.038740</t>
   </si>
@@ -83,12 +85,6 @@
     <t>38.983343</t>
   </si>
   <si>
-    <t>45.043880</t>
-  </si>
-  <si>
-    <t>38.981609</t>
-  </si>
-  <si>
     <t>45.080308</t>
   </si>
   <si>
@@ -260,18 +256,12 @@
     <t>39.024650</t>
   </si>
   <si>
-    <t xml:space="preserve">телефон: </t>
-  </si>
-  <si>
     <t>Приют "Краснодог"</t>
   </si>
   <si>
     <t>ул. Куйбышева, 2</t>
   </si>
   <si>
-    <t>телефон: 8 (988) 505-25-05</t>
-  </si>
-  <si>
     <t>45.030398</t>
   </si>
   <si>
@@ -284,9 +274,6 @@
     <t>Рождественская наб., 11</t>
   </si>
   <si>
-    <t>телефон: 8 (928) 422-00-12</t>
-  </si>
-  <si>
     <t>45.026417</t>
   </si>
   <si>
@@ -305,9 +292,6 @@
     <t>с/т Первенец кубани, ул. Абрикосовая, 547</t>
   </si>
   <si>
-    <t>телефон: 8 (988) 242-70-38</t>
-  </si>
-  <si>
     <t>45.051227</t>
   </si>
   <si>
@@ -326,9 +310,6 @@
     <t>ул. Прогонная, 75 Новотитаровская</t>
   </si>
   <si>
-    <t xml:space="preserve">телефон: 8 (988) 363-67-76 </t>
-  </si>
-  <si>
     <t>45.242838</t>
   </si>
   <si>
@@ -341,9 +322,6 @@
     <t>ул. Зиповская, 5/В</t>
   </si>
   <si>
-    <t>телефон: 8 (918) 217-33-77</t>
-  </si>
-  <si>
     <t>45.065015</t>
   </si>
   <si>
@@ -614,9 +592,6 @@
     <t>пр. 2-й Стасова, 113/1</t>
   </si>
   <si>
-    <t>телефон: 8 (938) 454-67-88</t>
-  </si>
-  <si>
     <t>45.010589</t>
   </si>
   <si>
@@ -876,6 +851,408 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Кафе "Зацепи кофе"</t>
+  </si>
+  <si>
+    <t>45.068023</t>
+  </si>
+  <si>
+    <t>38.982573</t>
+  </si>
+  <si>
+    <t>Кафе</t>
+  </si>
+  <si>
+    <t>ул. имени 40-летия Победы, 146</t>
+  </si>
+  <si>
+    <t>не указан</t>
+  </si>
+  <si>
+    <t>45.055251</t>
+  </si>
+  <si>
+    <t>39.015383</t>
+  </si>
+  <si>
+    <t>ул. Восточно-Кругликовская, 18/1</t>
+  </si>
+  <si>
+    <t>8 (928) 849-10-50</t>
+  </si>
+  <si>
+    <t>45.046555</t>
+  </si>
+  <si>
+    <t>39.028746</t>
+  </si>
+  <si>
+    <t>ул. ш. Нефтяников, 30</t>
+  </si>
+  <si>
+    <t>ул. Северная, 297</t>
+  </si>
+  <si>
+    <t>8 (918) 141-26-32</t>
+  </si>
+  <si>
+    <t>45.040370</t>
+  </si>
+  <si>
+    <t>38.978979</t>
+  </si>
+  <si>
+    <t>ул. Чапаева, 88</t>
+  </si>
+  <si>
+    <t>45.029916</t>
+  </si>
+  <si>
+    <t>38.971584</t>
+  </si>
+  <si>
+    <t>ул. Ставропольская, 131</t>
+  </si>
+  <si>
+    <t>45.020570</t>
+  </si>
+  <si>
+    <t>39.024702</t>
+  </si>
+  <si>
+    <t>ул. Митрофана Седина, 11</t>
+  </si>
+  <si>
+    <t>45.015671</t>
+  </si>
+  <si>
+    <t>38.974100</t>
+  </si>
+  <si>
+    <t>Кафе "Библиотека кофе"</t>
+  </si>
+  <si>
+    <t>ул. Красная, 137</t>
+  </si>
+  <si>
+    <t>8 (900) 292-22-27</t>
+  </si>
+  <si>
+    <t>45.044191</t>
+  </si>
+  <si>
+    <t>38.976536</t>
+  </si>
+  <si>
+    <t>ул. Красная, 164</t>
+  </si>
+  <si>
+    <t>45.040674</t>
+  </si>
+  <si>
+    <t>38.976759</t>
+  </si>
+  <si>
+    <t>ул. Красная, 21</t>
+  </si>
+  <si>
+    <t>45.019927</t>
+  </si>
+  <si>
+    <t>38.968630</t>
+  </si>
+  <si>
+    <t>ул. Поставая, 55</t>
+  </si>
+  <si>
+    <t>8 (961) 511-81-58</t>
+  </si>
+  <si>
+    <t>45.014214</t>
+  </si>
+  <si>
+    <t>38.971875</t>
+  </si>
+  <si>
+    <t>45.020601</t>
+  </si>
+  <si>
+    <t>39.024392</t>
+  </si>
+  <si>
+    <t>ул. Ставропольская, 224</t>
+  </si>
+  <si>
+    <t>45.018789</t>
+  </si>
+  <si>
+    <t>39.029925</t>
+  </si>
+  <si>
+    <t>Пиццерия Каморра</t>
+  </si>
+  <si>
+    <t>ул. Красная, 90</t>
+  </si>
+  <si>
+    <t>8 (861) 251-69-97</t>
+  </si>
+  <si>
+    <t>45.030973</t>
+  </si>
+  <si>
+    <t>38.972987</t>
+  </si>
+  <si>
+    <t>Кафе Hrum</t>
+  </si>
+  <si>
+    <t>ул. Красная, 78</t>
+  </si>
+  <si>
+    <t>8 (861) 259-51-75</t>
+  </si>
+  <si>
+    <t>45.029572</t>
+  </si>
+  <si>
+    <t>38.972354</t>
+  </si>
+  <si>
+    <t>ул. Красная 176/3</t>
+  </si>
+  <si>
+    <t>8 (964) 900-87-56</t>
+  </si>
+  <si>
+    <t>45.046362</t>
+  </si>
+  <si>
+    <t>38.981584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пиццерия </t>
+  </si>
+  <si>
+    <t>ул. Леваневского, 187</t>
+  </si>
+  <si>
+    <t>45.040316</t>
+  </si>
+  <si>
+    <t>38.987013</t>
+  </si>
+  <si>
+    <t>ул. Красная, 98</t>
+  </si>
+  <si>
+    <t>ул. Мира, 40</t>
+  </si>
+  <si>
+    <t>8 (988) 081-42-73</t>
+  </si>
+  <si>
+    <t>45.020851</t>
+  </si>
+  <si>
+    <t>38.968376</t>
+  </si>
+  <si>
+    <t>45.031818</t>
+  </si>
+  <si>
+    <t>38.973062</t>
+  </si>
+  <si>
+    <t>Кафе "Жаровня"</t>
+  </si>
+  <si>
+    <t>Кафе "Tutto gelato"</t>
+  </si>
+  <si>
+    <t>45.019054</t>
+  </si>
+  <si>
+    <t>38.968764</t>
+  </si>
+  <si>
+    <t>Кафе "Кулинаристика"</t>
+  </si>
+  <si>
+    <t>ул. Красная, 20</t>
+  </si>
+  <si>
+    <t>ул. Красноармейская, 58</t>
+  </si>
+  <si>
+    <t>8 (918) 111-19-99</t>
+  </si>
+  <si>
+    <t>45.025896</t>
+  </si>
+  <si>
+    <t>38.973283</t>
+  </si>
+  <si>
+    <t>ул. Красноармейская, 11</t>
+  </si>
+  <si>
+    <t>8 (988) 464-44-11</t>
+  </si>
+  <si>
+    <t>45.018401</t>
+  </si>
+  <si>
+    <t>38.970371</t>
+  </si>
+  <si>
+    <t>ул. Красная, 83</t>
+  </si>
+  <si>
+    <t>Кафе "Past Perfect"</t>
+  </si>
+  <si>
+    <t>8 (918) 180-33-30</t>
+  </si>
+  <si>
+    <t>45.031608</t>
+  </si>
+  <si>
+    <t>38.972713</t>
+  </si>
+  <si>
+    <t>Бар "Культура"</t>
+  </si>
+  <si>
+    <t>8 (988) 241-06-06</t>
+  </si>
+  <si>
+    <t>45.019016</t>
+  </si>
+  <si>
+    <t>38.968689</t>
+  </si>
+  <si>
+    <t>Бар</t>
+  </si>
+  <si>
+    <t>Парк</t>
+  </si>
+  <si>
+    <t>Городской сад</t>
+  </si>
+  <si>
+    <t>ул. Постовая, 34</t>
+  </si>
+  <si>
+    <t>45.012585</t>
+  </si>
+  <si>
+    <t>38.971470</t>
+  </si>
+  <si>
+    <t>Сквер имени Г.М. Седина</t>
+  </si>
+  <si>
+    <t>ул. Захарова</t>
+  </si>
+  <si>
+    <t>45.006934</t>
+  </si>
+  <si>
+    <t>38.967289</t>
+  </si>
+  <si>
+    <t>Чистяковская роща</t>
+  </si>
+  <si>
+    <t>ул. Колхозня, 86</t>
+  </si>
+  <si>
+    <t>8 (861) 257-04-49</t>
+  </si>
+  <si>
+    <t>45.056411</t>
+  </si>
+  <si>
+    <t>38.994312</t>
+  </si>
+  <si>
+    <t>Парк Краснодар</t>
+  </si>
+  <si>
+    <t>ул. Разведчика Леонова</t>
+  </si>
+  <si>
+    <t>45.041186</t>
+  </si>
+  <si>
+    <t>39.032093</t>
+  </si>
+  <si>
+    <t>8 (918) 217-33-77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (988) 363-67-76 </t>
+  </si>
+  <si>
+    <t>8 (988) 242-70-38</t>
+  </si>
+  <si>
+    <t>8 (928) 422-00-12</t>
+  </si>
+  <si>
+    <t>8 (988) 505-25-05</t>
+  </si>
+  <si>
+    <t>8 (918) 358-49-42</t>
+  </si>
+  <si>
+    <t>ул. Душистая, 41</t>
+  </si>
+  <si>
+    <t>8 (861) 203-45-49</t>
+  </si>
+  <si>
+    <t>ул. Атарбекова, 7</t>
+  </si>
+  <si>
+    <t>8 (861) 248-28-14</t>
+  </si>
+  <si>
+    <t>ул. Дзержинского, 100</t>
+  </si>
+  <si>
+    <t>Зоомагазин "Четыре Лапы"</t>
+  </si>
+  <si>
+    <t>ул. ш. Нефтяников, 42</t>
+  </si>
+  <si>
+    <t>8 (800) 770-00-22</t>
+  </si>
+  <si>
+    <t>45.071434</t>
+  </si>
+  <si>
+    <t>38.983955</t>
+  </si>
+  <si>
+    <t>Зоомагазин "Бетховен"</t>
+  </si>
+  <si>
+    <t>ул. Красная, 176лит1</t>
+  </si>
+  <si>
+    <t>8 (800) 555-22-11</t>
+  </si>
+  <si>
+    <t>45.046871</t>
+  </si>
+  <si>
+    <t>38.980029</t>
   </si>
 </sst>
 </file>
@@ -1237,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB534E2-50F9-4040-9258-1D3ACB0B627F}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,13 +1633,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -1271,44 +1648,44 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C2">
         <v>350053</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>350000</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -1317,21 +1694,21 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>350000</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1340,1019 +1717,1019 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>350051</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>350090</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>350051</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>350005</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>350000</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>350005</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>350072</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>350049</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>350062</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>350087</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>350072</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>350087</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C17">
         <v>350901</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C18">
         <v>350051</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>350072</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>350049</v>
       </c>
       <c r="D20" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C21">
         <v>350901</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C22">
         <v>350000</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C23">
         <v>350087</v>
       </c>
       <c r="D23" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C24">
         <v>350001</v>
       </c>
       <c r="D24" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C25">
         <v>350059</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C26">
         <v>350031</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C27">
         <v>350038</v>
       </c>
       <c r="D27" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C28">
         <v>350075</v>
       </c>
       <c r="D28" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C29">
         <v>350001</v>
       </c>
       <c r="D29" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C30">
         <v>350051</v>
       </c>
       <c r="D30" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C31">
         <v>350067</v>
       </c>
       <c r="D31" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C32">
         <v>350020</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C33">
         <v>350016</v>
       </c>
       <c r="D33" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C34">
         <v>350089</v>
       </c>
       <c r="D34" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C35">
         <v>350089</v>
       </c>
       <c r="D35" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E35" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C36">
         <v>350063</v>
       </c>
       <c r="D36" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F36" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C37">
         <v>350010</v>
       </c>
       <c r="D37" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F37" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C38">
         <v>350900</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C39">
         <v>350011</v>
       </c>
       <c r="D39" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F39" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C40">
         <v>350059</v>
       </c>
       <c r="D40" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F40" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C41">
         <v>350061</v>
       </c>
       <c r="D41" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F41" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C42">
         <v>350901</v>
       </c>
       <c r="D42" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>350005</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F43" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C44">
         <v>350080</v>
       </c>
       <c r="D44" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E44" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C45">
         <v>350901</v>
       </c>
       <c r="D45" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E45" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F45" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C46">
         <v>350016</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E46" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F46" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C47">
         <v>350087</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C48">
         <v>350047</v>
       </c>
       <c r="D48" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E48" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G48" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2363,10 +2740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDFED3F-D052-4492-B0C6-D7035A25A174}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,13 +2761,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -2399,21 +2776,21 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2">
-        <v>35</v>
+        <v>390</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -2427,16 +2804,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
+        <v>392</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -2453,13 +2830,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4">
-        <v>35</v>
+        <v>394</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2473,22 +2850,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5">
-        <v>35</v>
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -2496,24 +2873,47 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6">
-        <v>350011</v>
+        <v>396</v>
+      </c>
+      <c r="C6" t="s">
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>397</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>398</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>399</v>
       </c>
       <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2527,7 +2927,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,13 +2945,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -2560,149 +2960,794 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>350038</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>350089</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>350000</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>353211</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>385</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>350072</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>384</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <v>350011</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5BC614-7142-4530-B112-9FDE2210F164}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" t="s">
+        <v>321</v>
+      </c>
+      <c r="F15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" t="s">
+        <v>360</v>
+      </c>
+      <c r="F24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" t="s">
+        <v>364</v>
+      </c>
+      <c r="F25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08490406-646E-4669-A004-8D0C1A3FDD12}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>